--- a/ASP.NET CORE/OPERATION_MNS/public/wwwroot/templates/MaterialPlan_Module_Template.xlsx
+++ b/ASP.NET CORE/OPERATION_MNS/public/wwwroot/templates/MaterialPlan_Module_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wisol_Git\OPERATION_MNS_SYSTEM\OPERATION_MNS\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20906286-F5C8-4532-B383-919DD7057108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714A9FFB-1098-496D-AA84-336A717732C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Mã BOM(Mã nguyên liệu)</t>
   </si>
@@ -59,40 +59,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>2203W30N5PM</t>
-  </si>
-  <si>
-    <t>CAP</t>
-  </si>
-  <si>
-    <t>T/Y,MURATA</t>
-  </si>
-  <si>
-    <t>L6Q0,L6Y0,L9C0,L7E0,L3X0</t>
-  </si>
-  <si>
     <t>Result</t>
-  </si>
-  <si>
-    <t>2203W30N7PM</t>
-  </si>
-  <si>
-    <t>LFU0,L9C0,L7E0,L7A0</t>
-  </si>
-  <si>
-    <t>2203W3330PM</t>
-  </si>
-  <si>
-    <t>L6Y0,LFU0,L7E0,L7A0</t>
-  </si>
-  <si>
-    <t>2203W33N9PM</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>R9Z0, RAT0, RAQ0</t>
   </si>
 </sst>
 </file>
@@ -229,7 +196,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -519,7 +486,7 @@
   <dimension ref="A1:AW6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -542,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="7">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="C1" s="1"/>
       <c r="H1">
@@ -689,196 +656,186 @@
         <v>3</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="4">
-        <f xml:space="preserve"> $B$1+H1</f>
-        <v>45323</v>
+        <f t="shared" ref="H2:AW2" si="0" xml:space="preserve"> $B$1+H1</f>
+        <v>45383</v>
       </c>
       <c r="I2" s="4">
-        <f xml:space="preserve"> $B$1+I1</f>
-        <v>45324</v>
+        <f t="shared" si="0"/>
+        <v>45384</v>
       </c>
       <c r="J2" s="4">
-        <f xml:space="preserve"> $B$1+J1</f>
-        <v>45325</v>
+        <f t="shared" si="0"/>
+        <v>45385</v>
       </c>
       <c r="K2" s="4">
-        <f xml:space="preserve"> $B$1+K1</f>
-        <v>45326</v>
+        <f t="shared" si="0"/>
+        <v>45386</v>
       </c>
       <c r="L2" s="4">
-        <f xml:space="preserve"> $B$1+L1</f>
-        <v>45327</v>
+        <f t="shared" si="0"/>
+        <v>45387</v>
       </c>
       <c r="M2" s="4">
-        <f xml:space="preserve"> $B$1+M1</f>
-        <v>45328</v>
+        <f t="shared" si="0"/>
+        <v>45388</v>
       </c>
       <c r="N2" s="4">
-        <f xml:space="preserve"> $B$1+N1</f>
-        <v>45329</v>
+        <f t="shared" si="0"/>
+        <v>45389</v>
       </c>
       <c r="O2" s="4">
-        <f xml:space="preserve"> $B$1+O1</f>
-        <v>45330</v>
+        <f t="shared" si="0"/>
+        <v>45390</v>
       </c>
       <c r="P2" s="4">
-        <f xml:space="preserve"> $B$1+P1</f>
-        <v>45331</v>
+        <f t="shared" si="0"/>
+        <v>45391</v>
       </c>
       <c r="Q2" s="4">
-        <f xml:space="preserve"> $B$1+Q1</f>
-        <v>45332</v>
+        <f t="shared" si="0"/>
+        <v>45392</v>
       </c>
       <c r="R2" s="4">
-        <f xml:space="preserve"> $B$1+R1</f>
-        <v>45333</v>
+        <f t="shared" si="0"/>
+        <v>45393</v>
       </c>
       <c r="S2" s="4">
-        <f xml:space="preserve"> $B$1+S1</f>
-        <v>45334</v>
+        <f t="shared" si="0"/>
+        <v>45394</v>
       </c>
       <c r="T2" s="4">
-        <f xml:space="preserve"> $B$1+T1</f>
-        <v>45335</v>
+        <f t="shared" si="0"/>
+        <v>45395</v>
       </c>
       <c r="U2" s="4">
-        <f xml:space="preserve"> $B$1+U1</f>
-        <v>45336</v>
+        <f t="shared" si="0"/>
+        <v>45396</v>
       </c>
       <c r="V2" s="4">
-        <f xml:space="preserve"> $B$1+V1</f>
-        <v>45337</v>
+        <f t="shared" si="0"/>
+        <v>45397</v>
       </c>
       <c r="W2" s="4">
-        <f xml:space="preserve"> $B$1+W1</f>
-        <v>45338</v>
+        <f t="shared" si="0"/>
+        <v>45398</v>
       </c>
       <c r="X2" s="4">
-        <f xml:space="preserve"> $B$1+X1</f>
-        <v>45339</v>
+        <f t="shared" si="0"/>
+        <v>45399</v>
       </c>
       <c r="Y2" s="4">
-        <f xml:space="preserve"> $B$1+Y1</f>
-        <v>45340</v>
+        <f t="shared" si="0"/>
+        <v>45400</v>
       </c>
       <c r="Z2" s="4">
-        <f xml:space="preserve"> $B$1+Z1</f>
-        <v>45341</v>
+        <f t="shared" si="0"/>
+        <v>45401</v>
       </c>
       <c r="AA2" s="4">
-        <f xml:space="preserve"> $B$1+AA1</f>
-        <v>45342</v>
+        <f t="shared" si="0"/>
+        <v>45402</v>
       </c>
       <c r="AB2" s="4">
-        <f xml:space="preserve"> $B$1+AB1</f>
-        <v>45343</v>
+        <f t="shared" si="0"/>
+        <v>45403</v>
       </c>
       <c r="AC2" s="4">
-        <f xml:space="preserve"> $B$1+AC1</f>
-        <v>45344</v>
+        <f t="shared" si="0"/>
+        <v>45404</v>
       </c>
       <c r="AD2" s="4">
-        <f xml:space="preserve"> $B$1+AD1</f>
-        <v>45345</v>
+        <f t="shared" si="0"/>
+        <v>45405</v>
       </c>
       <c r="AE2" s="4">
-        <f xml:space="preserve"> $B$1+AE1</f>
-        <v>45346</v>
+        <f t="shared" si="0"/>
+        <v>45406</v>
       </c>
       <c r="AF2" s="4">
-        <f xml:space="preserve"> $B$1+AF1</f>
-        <v>45347</v>
+        <f t="shared" si="0"/>
+        <v>45407</v>
       </c>
       <c r="AG2" s="4">
-        <f xml:space="preserve"> $B$1+AG1</f>
-        <v>45348</v>
+        <f t="shared" si="0"/>
+        <v>45408</v>
       </c>
       <c r="AH2" s="4">
-        <f xml:space="preserve"> $B$1+AH1</f>
-        <v>45349</v>
+        <f t="shared" si="0"/>
+        <v>45409</v>
       </c>
       <c r="AI2" s="4">
-        <f xml:space="preserve"> $B$1+AI1</f>
-        <v>45350</v>
+        <f t="shared" si="0"/>
+        <v>45410</v>
       </c>
       <c r="AJ2" s="4">
-        <f xml:space="preserve"> $B$1+AJ1</f>
-        <v>45351</v>
+        <f t="shared" si="0"/>
+        <v>45411</v>
       </c>
       <c r="AK2" s="4">
-        <f xml:space="preserve"> $B$1+AK1</f>
-        <v>45352</v>
+        <f t="shared" si="0"/>
+        <v>45412</v>
       </c>
       <c r="AL2" s="4">
-        <f xml:space="preserve"> $B$1+AL1</f>
-        <v>45353</v>
+        <f t="shared" si="0"/>
+        <v>45413</v>
       </c>
       <c r="AM2" s="4">
-        <f xml:space="preserve"> $B$1+AM1</f>
-        <v>45354</v>
+        <f t="shared" si="0"/>
+        <v>45414</v>
       </c>
       <c r="AN2" s="4">
-        <f xml:space="preserve"> $B$1+AN1</f>
-        <v>45355</v>
+        <f t="shared" si="0"/>
+        <v>45415</v>
       </c>
       <c r="AO2" s="4">
-        <f xml:space="preserve"> $B$1+AO1</f>
-        <v>45356</v>
+        <f t="shared" si="0"/>
+        <v>45416</v>
       </c>
       <c r="AP2" s="4">
-        <f xml:space="preserve"> $B$1+AP1</f>
-        <v>45357</v>
+        <f t="shared" si="0"/>
+        <v>45417</v>
       </c>
       <c r="AQ2" s="4">
-        <f xml:space="preserve"> $B$1+AQ1</f>
-        <v>45358</v>
+        <f t="shared" si="0"/>
+        <v>45418</v>
       </c>
       <c r="AR2" s="4">
-        <f xml:space="preserve"> $B$1+AR1</f>
-        <v>45359</v>
+        <f t="shared" si="0"/>
+        <v>45419</v>
       </c>
       <c r="AS2" s="4">
-        <f xml:space="preserve"> $B$1+AS1</f>
-        <v>45360</v>
+        <f t="shared" si="0"/>
+        <v>45420</v>
       </c>
       <c r="AT2" s="4">
-        <f xml:space="preserve"> $B$1+AT1</f>
-        <v>45361</v>
+        <f t="shared" si="0"/>
+        <v>45421</v>
       </c>
       <c r="AU2" s="4">
-        <f xml:space="preserve"> $B$1+AU1</f>
-        <v>45362</v>
+        <f t="shared" si="0"/>
+        <v>45422</v>
       </c>
       <c r="AV2" s="4">
-        <f xml:space="preserve"> $B$1+AV1</f>
-        <v>45363</v>
+        <f t="shared" si="0"/>
+        <v>45423</v>
       </c>
       <c r="AW2" s="4">
-        <f xml:space="preserve"> $B$1+AW1</f>
-        <v>45364</v>
+        <f t="shared" si="0"/>
+        <v>45424</v>
       </c>
     </row>
     <row r="3" spans="1:49">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5">
-        <v>212776</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5">
@@ -951,21 +908,11 @@
       <c r="AW3" s="5"/>
     </row>
     <row r="4" spans="1:49">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5">
-        <v>109596</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5">
@@ -1038,21 +985,11 @@
       <c r="AW4" s="5"/>
     </row>
     <row r="5" spans="1:49">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5">
-        <v>227762</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5">
@@ -1125,21 +1062,11 @@
       <c r="AW5" s="5"/>
     </row>
     <row r="6" spans="1:49">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1959997</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5">
